--- a/data/dxy_data_recent.xlsx
+++ b/data/dxy_data_recent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>全国</t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>10:28</t>
+  </si>
+  <si>
+    <t>12:26</t>
+  </si>
+  <si>
+    <t>12:28</t>
+  </si>
+  <si>
+    <t>12:29</t>
   </si>
 </sst>
 </file>
@@ -627,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL49"/>
+  <dimension ref="A1:EL52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20900,6 +20909,1284 @@
         <v>1</v>
       </c>
       <c r="EL49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:142">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" t="n">
+        <v>79</v>
+      </c>
+      <c r="D50" t="n">
+        <v>70</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G50" t="n">
+        <v>38</v>
+      </c>
+      <c r="H50" t="n">
+        <v>32</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>572</v>
+      </c>
+      <c r="K50" t="n">
+        <v>39</v>
+      </c>
+      <c r="L50" t="n">
+        <v>32</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>729</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>78</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>62</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ50" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD50" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH50" t="n">
+        <v>8</v>
+      </c>
+      <c r="CI50" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL50" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP50" t="n">
+        <v>6</v>
+      </c>
+      <c r="CQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT50" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX50" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB50" t="n">
+        <v>5</v>
+      </c>
+      <c r="DC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF50" t="n">
+        <v>4</v>
+      </c>
+      <c r="DG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ50" t="n">
+        <v>4</v>
+      </c>
+      <c r="DK50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN50" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR50" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV50" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED50" t="n">
+        <v>2</v>
+      </c>
+      <c r="EE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH50" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK50" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:142">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" t="n">
+        <v>79</v>
+      </c>
+      <c r="D51" t="n">
+        <v>70</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G51" t="n">
+        <v>38</v>
+      </c>
+      <c r="H51" t="n">
+        <v>32</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>572</v>
+      </c>
+      <c r="K51" t="n">
+        <v>39</v>
+      </c>
+      <c r="L51" t="n">
+        <v>32</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>729</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>78</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>62</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ51" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD51" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH51" t="n">
+        <v>8</v>
+      </c>
+      <c r="CI51" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL51" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP51" t="n">
+        <v>6</v>
+      </c>
+      <c r="CQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT51" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX51" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB51" t="n">
+        <v>5</v>
+      </c>
+      <c r="DC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF51" t="n">
+        <v>4</v>
+      </c>
+      <c r="DG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ51" t="n">
+        <v>4</v>
+      </c>
+      <c r="DK51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN51" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR51" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV51" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED51" t="n">
+        <v>2</v>
+      </c>
+      <c r="EE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:142">
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="n">
+        <v>79</v>
+      </c>
+      <c r="D52" t="n">
+        <v>70</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G52" t="n">
+        <v>38</v>
+      </c>
+      <c r="H52" t="n">
+        <v>32</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>572</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39</v>
+      </c>
+      <c r="L52" t="n">
+        <v>32</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>729</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>78</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>62</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>57</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>43</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>18</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>15</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BV52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ52" t="n">
+        <v>9</v>
+      </c>
+      <c r="CA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD52" t="n">
+        <v>8</v>
+      </c>
+      <c r="CE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH52" t="n">
+        <v>8</v>
+      </c>
+      <c r="CI52" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL52" t="n">
+        <v>8</v>
+      </c>
+      <c r="CM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP52" t="n">
+        <v>6</v>
+      </c>
+      <c r="CQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT52" t="n">
+        <v>5</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX52" t="n">
+        <v>5</v>
+      </c>
+      <c r="CY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB52" t="n">
+        <v>5</v>
+      </c>
+      <c r="DC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF52" t="n">
+        <v>4</v>
+      </c>
+      <c r="DG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ52" t="n">
+        <v>4</v>
+      </c>
+      <c r="DK52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN52" t="n">
+        <v>4</v>
+      </c>
+      <c r="DO52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR52" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV52" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED52" t="n">
+        <v>2</v>
+      </c>
+      <c r="EE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK52" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20944,7 +22231,7 @@
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A26:A39"/>
-    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="A40:A52"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
